--- a/experiment1_analysis/stimuliid_boundaries.xlsx
+++ b/experiment1_analysis/stimuliid_boundaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eye_Tracking_Education_Video\experiment1_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5485107-944F-4942-8BF0-9679F477A9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1758712C-365C-436F-8952-15FA7B5BB9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4584" yWindow="3348" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>StimuliID</t>
   </si>
@@ -50,7 +50,424 @@
     <t>Yhi</t>
   </si>
   <si>
-    <t>test.jpg</t>
+    <t>1.jpg</t>
+  </si>
+  <si>
+    <t>2.jpg</t>
+  </si>
+  <si>
+    <t>3.jpg</t>
+  </si>
+  <si>
+    <t>4.jpg</t>
+  </si>
+  <si>
+    <t>5.jpg</t>
+  </si>
+  <si>
+    <t>6.jpg</t>
+  </si>
+  <si>
+    <t>7.jpg</t>
+  </si>
+  <si>
+    <t>140.jpg</t>
+  </si>
+  <si>
+    <t>139.jpg</t>
+  </si>
+  <si>
+    <t>8.jpg</t>
+  </si>
+  <si>
+    <t>9.jpg</t>
+  </si>
+  <si>
+    <t>10.jpg</t>
+  </si>
+  <si>
+    <t>11.jpg</t>
+  </si>
+  <si>
+    <t>12.jpg</t>
+  </si>
+  <si>
+    <t>13.jpg</t>
+  </si>
+  <si>
+    <t>14.jpg</t>
+  </si>
+  <si>
+    <t>15.jpg</t>
+  </si>
+  <si>
+    <t>16.jpg</t>
+  </si>
+  <si>
+    <t>17.jpg</t>
+  </si>
+  <si>
+    <t>18.jpg</t>
+  </si>
+  <si>
+    <t>19.jpg</t>
+  </si>
+  <si>
+    <t>20.jpg</t>
+  </si>
+  <si>
+    <t>21.jpg</t>
+  </si>
+  <si>
+    <t>22.jpg</t>
+  </si>
+  <si>
+    <t>23.jpg</t>
+  </si>
+  <si>
+    <t>24.jpg</t>
+  </si>
+  <si>
+    <t>25.jpg</t>
+  </si>
+  <si>
+    <t>26.jpg</t>
+  </si>
+  <si>
+    <t>27.jpg</t>
+  </si>
+  <si>
+    <t>28.jpg</t>
+  </si>
+  <si>
+    <t>29.jpg</t>
+  </si>
+  <si>
+    <t>30.jpg</t>
+  </si>
+  <si>
+    <t>31.jpg</t>
+  </si>
+  <si>
+    <t>32.jpg</t>
+  </si>
+  <si>
+    <t>33.jpg</t>
+  </si>
+  <si>
+    <t>34.jpg</t>
+  </si>
+  <si>
+    <t>35.jpg</t>
+  </si>
+  <si>
+    <t>36.jpg</t>
+  </si>
+  <si>
+    <t>37.jpg</t>
+  </si>
+  <si>
+    <t>38.jpg</t>
+  </si>
+  <si>
+    <t>39.jpg</t>
+  </si>
+  <si>
+    <t>40.jpg</t>
+  </si>
+  <si>
+    <t>41.jpg</t>
+  </si>
+  <si>
+    <t>42.jpg</t>
+  </si>
+  <si>
+    <t>43.jpg</t>
+  </si>
+  <si>
+    <t>44.jpg</t>
+  </si>
+  <si>
+    <t>45.jpg</t>
+  </si>
+  <si>
+    <t>46.jpg</t>
+  </si>
+  <si>
+    <t>47.jpg</t>
+  </si>
+  <si>
+    <t>48.jpg</t>
+  </si>
+  <si>
+    <t>49.jpg</t>
+  </si>
+  <si>
+    <t>50.jpg</t>
+  </si>
+  <si>
+    <t>51.jpg</t>
+  </si>
+  <si>
+    <t>52.jpg</t>
+  </si>
+  <si>
+    <t>53.jpg</t>
+  </si>
+  <si>
+    <t>54.jpg</t>
+  </si>
+  <si>
+    <t>55.jpg</t>
+  </si>
+  <si>
+    <t>56.jpg</t>
+  </si>
+  <si>
+    <t>57.jpg</t>
+  </si>
+  <si>
+    <t>58.jpg</t>
+  </si>
+  <si>
+    <t>59.jpg</t>
+  </si>
+  <si>
+    <t>60.jpg</t>
+  </si>
+  <si>
+    <t>61.jpg</t>
+  </si>
+  <si>
+    <t>62.jpg</t>
+  </si>
+  <si>
+    <t>63.jpg</t>
+  </si>
+  <si>
+    <t>64.jpg</t>
+  </si>
+  <si>
+    <t>65.jpg</t>
+  </si>
+  <si>
+    <t>66.jpg</t>
+  </si>
+  <si>
+    <t>67.jpg</t>
+  </si>
+  <si>
+    <t>68.jpg</t>
+  </si>
+  <si>
+    <t>69.jpg</t>
+  </si>
+  <si>
+    <t>70.jpg</t>
+  </si>
+  <si>
+    <t>71.jpg</t>
+  </si>
+  <si>
+    <t>72.jpg</t>
+  </si>
+  <si>
+    <t>73.jpg</t>
+  </si>
+  <si>
+    <t>74.jpg</t>
+  </si>
+  <si>
+    <t>75.jpg</t>
+  </si>
+  <si>
+    <t>76.jpg</t>
+  </si>
+  <si>
+    <t>77.jpg</t>
+  </si>
+  <si>
+    <t>78.jpg</t>
+  </si>
+  <si>
+    <t>79.jpg</t>
+  </si>
+  <si>
+    <t>80.jpg</t>
+  </si>
+  <si>
+    <t>81.jpg</t>
+  </si>
+  <si>
+    <t>82.jpg</t>
+  </si>
+  <si>
+    <t>83.jpg</t>
+  </si>
+  <si>
+    <t>84.jpg</t>
+  </si>
+  <si>
+    <t>85.jpg</t>
+  </si>
+  <si>
+    <t>86.jpg</t>
+  </si>
+  <si>
+    <t>87.jpg</t>
+  </si>
+  <si>
+    <t>88.jpg</t>
+  </si>
+  <si>
+    <t>89.jpg</t>
+  </si>
+  <si>
+    <t>90.jpg</t>
+  </si>
+  <si>
+    <t>91.jpg</t>
+  </si>
+  <si>
+    <t>92.jpg</t>
+  </si>
+  <si>
+    <t>93.jpg</t>
+  </si>
+  <si>
+    <t>94.jpg</t>
+  </si>
+  <si>
+    <t>95.jpg</t>
+  </si>
+  <si>
+    <t>96.jpg</t>
+  </si>
+  <si>
+    <t>97.jpg</t>
+  </si>
+  <si>
+    <t>98.jpg</t>
+  </si>
+  <si>
+    <t>99.jpg</t>
+  </si>
+  <si>
+    <t>100.jpg</t>
+  </si>
+  <si>
+    <t>101.jpg</t>
+  </si>
+  <si>
+    <t>102.jpg</t>
+  </si>
+  <si>
+    <t>103.jpg</t>
+  </si>
+  <si>
+    <t>104.jpg</t>
+  </si>
+  <si>
+    <t>105.jpg</t>
+  </si>
+  <si>
+    <t>106.jpg</t>
+  </si>
+  <si>
+    <t>107.jpg</t>
+  </si>
+  <si>
+    <t>108.jpg</t>
+  </si>
+  <si>
+    <t>109.jpg</t>
+  </si>
+  <si>
+    <t>110.jpg</t>
+  </si>
+  <si>
+    <t>111.jpg</t>
+  </si>
+  <si>
+    <t>112.jpg</t>
+  </si>
+  <si>
+    <t>113.jpg</t>
+  </si>
+  <si>
+    <t>114.jpg</t>
+  </si>
+  <si>
+    <t>115.jpg</t>
+  </si>
+  <si>
+    <t>116.jpg</t>
+  </si>
+  <si>
+    <t>117.jpg</t>
+  </si>
+  <si>
+    <t>118.jpg</t>
+  </si>
+  <si>
+    <t>119.jpg</t>
+  </si>
+  <si>
+    <t>120.jpg</t>
+  </si>
+  <si>
+    <t>121.jpg</t>
+  </si>
+  <si>
+    <t>122.jpg</t>
+  </si>
+  <si>
+    <t>123.jpg</t>
+  </si>
+  <si>
+    <t>124.jpg</t>
+  </si>
+  <si>
+    <t>125.jpg</t>
+  </si>
+  <si>
+    <t>126.jpg</t>
+  </si>
+  <si>
+    <t>127.jpg</t>
+  </si>
+  <si>
+    <t>128.jpg</t>
+  </si>
+  <si>
+    <t>129.jpg</t>
+  </si>
+  <si>
+    <t>130.jpg</t>
+  </si>
+  <si>
+    <t>131.jpg</t>
+  </si>
+  <si>
+    <t>132.jpg</t>
+  </si>
+  <si>
+    <t>133.jpg</t>
+  </si>
+  <si>
+    <t>134.jpg</t>
+  </si>
+  <si>
+    <t>135.jpg</t>
+  </si>
+  <si>
+    <t>136.jpg</t>
+  </si>
+  <si>
+    <t>137.jpg</t>
+  </si>
+  <si>
+    <t>138.jpg</t>
   </si>
 </sst>
 </file>
@@ -434,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="H137" sqref="H137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -476,8 +893,2368 @@
         <v>720</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="2"/>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>122</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>127</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>128</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>129</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>130</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>131</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>132</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>133</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>134</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>135</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>136</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>137</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>138</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>139</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>140</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>141</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>142</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>143</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>144</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>720</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/experiment1_analysis/stimuliid_boundaries.xlsx
+++ b/experiment1_analysis/stimuliid_boundaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eye_Tracking_Education_Video\experiment1_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1758712C-365C-436F-8952-15FA7B5BB9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9857D4C2-989F-40C8-A038-A34C6CA39736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4584" yWindow="3348" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="H137" sqref="H137"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -887,10 +887,10 @@
         <v>1280</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E2">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -904,10 +904,10 @@
         <v>1280</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E3">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -921,10 +921,10 @@
         <v>1280</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E4">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -938,10 +938,10 @@
         <v>1280</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E5">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -955,10 +955,10 @@
         <v>1280</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E6">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -972,10 +972,10 @@
         <v>1280</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E7">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -989,10 +989,10 @@
         <v>1280</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E8">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1006,10 +1006,10 @@
         <v>1280</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E9">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1023,10 +1023,10 @@
         <v>1280</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E10">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1040,10 +1040,10 @@
         <v>1280</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E11">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1057,10 +1057,10 @@
         <v>1280</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E12">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1074,10 +1074,10 @@
         <v>1280</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E13">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1091,10 +1091,10 @@
         <v>1280</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E14">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1108,10 +1108,10 @@
         <v>1280</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E15">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>1280</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E16">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>1280</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E17">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>1280</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E18">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1176,10 +1176,10 @@
         <v>1280</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E19">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1193,10 +1193,10 @@
         <v>1280</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E20">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1210,10 +1210,10 @@
         <v>1280</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E21">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1227,10 +1227,10 @@
         <v>1280</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E22">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1244,10 +1244,10 @@
         <v>1280</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E23">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1261,10 +1261,10 @@
         <v>1280</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E24">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1278,10 +1278,10 @@
         <v>1280</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E25">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1295,10 +1295,10 @@
         <v>1280</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E26">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1312,10 +1312,10 @@
         <v>1280</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E27">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1329,10 +1329,10 @@
         <v>1280</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E28">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1346,10 +1346,10 @@
         <v>1280</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E29">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1363,10 +1363,10 @@
         <v>1280</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E30">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1380,10 +1380,10 @@
         <v>1280</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E31">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1397,10 +1397,10 @@
         <v>1280</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E32">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1414,10 +1414,10 @@
         <v>1280</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E33">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1431,10 +1431,10 @@
         <v>1280</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E34">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1448,10 +1448,10 @@
         <v>1280</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E35">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1465,10 +1465,10 @@
         <v>1280</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E36">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1482,10 +1482,10 @@
         <v>1280</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E37">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1499,10 +1499,10 @@
         <v>1280</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E38">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1516,10 +1516,10 @@
         <v>1280</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E39">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1533,10 +1533,10 @@
         <v>1280</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E40">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1550,10 +1550,10 @@
         <v>1280</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E41">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1567,10 +1567,10 @@
         <v>1280</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E42">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1584,10 +1584,10 @@
         <v>1280</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E43">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1601,10 +1601,10 @@
         <v>1280</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E44">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1618,10 +1618,10 @@
         <v>1280</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E45">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1635,10 +1635,10 @@
         <v>1280</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E46">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1652,10 +1652,10 @@
         <v>1280</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E47">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1669,10 +1669,10 @@
         <v>1280</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E48">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1686,10 +1686,10 @@
         <v>1280</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E49">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1703,10 +1703,10 @@
         <v>1280</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E50">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1720,10 +1720,10 @@
         <v>1280</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E51">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1737,10 +1737,10 @@
         <v>1280</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E52">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1754,10 +1754,10 @@
         <v>1280</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E53">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1771,10 +1771,10 @@
         <v>1280</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E54">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1788,10 +1788,10 @@
         <v>1280</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E55">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1805,10 +1805,10 @@
         <v>1280</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E56">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1822,10 +1822,10 @@
         <v>1280</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E57">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1839,10 +1839,10 @@
         <v>1280</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E58">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1856,10 +1856,10 @@
         <v>1280</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E59">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1873,10 +1873,10 @@
         <v>1280</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E60">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1890,10 +1890,10 @@
         <v>1280</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E61">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1907,10 +1907,10 @@
         <v>1280</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E62">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1924,10 +1924,10 @@
         <v>1280</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E63">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1941,10 +1941,10 @@
         <v>1280</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E64">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1958,10 +1958,10 @@
         <v>1280</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E65">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1975,10 +1975,10 @@
         <v>1280</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E66">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1992,10 +1992,10 @@
         <v>1280</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E67">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2009,10 +2009,10 @@
         <v>1280</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E68">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2026,10 +2026,10 @@
         <v>1280</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E69">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2043,10 +2043,10 @@
         <v>1280</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E70">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2060,10 +2060,10 @@
         <v>1280</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E71">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2077,10 +2077,10 @@
         <v>1280</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E72">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2094,10 +2094,10 @@
         <v>1280</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E73">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2111,10 +2111,10 @@
         <v>1280</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E74">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2128,10 +2128,10 @@
         <v>1280</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E75">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2145,10 +2145,10 @@
         <v>1280</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E76">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2162,10 +2162,10 @@
         <v>1280</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E77">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2179,10 +2179,10 @@
         <v>1280</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E78">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2196,10 +2196,10 @@
         <v>1280</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E79">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2213,10 +2213,10 @@
         <v>1280</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E80">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2230,10 +2230,10 @@
         <v>1280</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E81">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2247,10 +2247,10 @@
         <v>1280</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E82">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2264,10 +2264,10 @@
         <v>1280</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E83">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2281,10 +2281,10 @@
         <v>1280</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E84">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2298,10 +2298,10 @@
         <v>1280</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E85">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2315,10 +2315,10 @@
         <v>1280</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E86">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2332,10 +2332,10 @@
         <v>1280</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E87">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2349,10 +2349,10 @@
         <v>1280</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E88">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2366,10 +2366,10 @@
         <v>1280</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E89">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2383,10 +2383,10 @@
         <v>1280</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E90">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2400,10 +2400,10 @@
         <v>1280</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E91">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2417,10 +2417,10 @@
         <v>1280</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E92">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2434,10 +2434,10 @@
         <v>1280</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E93">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2451,10 +2451,10 @@
         <v>1280</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E94">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2468,10 +2468,10 @@
         <v>1280</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E95">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2485,10 +2485,10 @@
         <v>1280</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E96">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2502,10 +2502,10 @@
         <v>1280</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E97">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2519,10 +2519,10 @@
         <v>1280</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E98">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2536,10 +2536,10 @@
         <v>1280</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E99">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2553,10 +2553,10 @@
         <v>1280</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E100">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2570,10 +2570,10 @@
         <v>1280</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E101">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2587,10 +2587,10 @@
         <v>1280</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E102">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2604,10 +2604,10 @@
         <v>1280</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E103">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2621,10 +2621,10 @@
         <v>1280</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E104">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2638,10 +2638,10 @@
         <v>1280</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E105">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2655,10 +2655,10 @@
         <v>1280</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E106">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2672,10 +2672,10 @@
         <v>1280</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E107">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2689,10 +2689,10 @@
         <v>1280</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E108">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2706,10 +2706,10 @@
         <v>1280</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E109">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2723,10 +2723,10 @@
         <v>1280</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E110">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2740,10 +2740,10 @@
         <v>1280</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E111">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2757,10 +2757,10 @@
         <v>1280</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E112">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2774,10 +2774,10 @@
         <v>1280</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E113">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2791,10 +2791,10 @@
         <v>1280</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E114">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2808,10 +2808,10 @@
         <v>1280</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E115">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2825,10 +2825,10 @@
         <v>1280</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E116">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2842,10 +2842,10 @@
         <v>1280</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E117">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2859,10 +2859,10 @@
         <v>1280</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E118">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2876,10 +2876,10 @@
         <v>1280</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E119">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2893,10 +2893,10 @@
         <v>1280</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E120">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2910,10 +2910,10 @@
         <v>1280</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E121">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2927,10 +2927,10 @@
         <v>1280</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E122">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2944,10 +2944,10 @@
         <v>1280</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E123">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2961,10 +2961,10 @@
         <v>1280</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E124">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2978,10 +2978,10 @@
         <v>1280</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E125">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2995,10 +2995,10 @@
         <v>1280</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E126">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3012,10 +3012,10 @@
         <v>1280</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E127">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3029,10 +3029,10 @@
         <v>1280</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E128">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3046,10 +3046,10 @@
         <v>1280</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E129">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3063,10 +3063,10 @@
         <v>1280</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E130">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3080,10 +3080,10 @@
         <v>1280</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E131">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3097,10 +3097,10 @@
         <v>1280</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E132">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3114,10 +3114,10 @@
         <v>1280</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E133">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3131,10 +3131,10 @@
         <v>1280</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E134">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3148,10 +3148,10 @@
         <v>1280</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E135">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3165,10 +3165,10 @@
         <v>1280</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E136">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3182,10 +3182,10 @@
         <v>1280</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E137">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3199,10 +3199,10 @@
         <v>1280</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E138">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3216,10 +3216,10 @@
         <v>1280</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E139">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3233,10 +3233,10 @@
         <v>1280</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E140">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3250,10 +3250,10 @@
         <v>1280</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E141">
-        <v>720</v>
+        <v>872</v>
       </c>
     </row>
   </sheetData>
